--- a/medicine/Enfance/Linda_Joy_Singleton/Linda_Joy_Singleton.xlsx
+++ b/medicine/Enfance/Linda_Joy_Singleton/Linda_Joy_Singleton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linda Joy Singleton, née le 29 octobre 1957 à Portland dans l'Oregon, est une auteure américaine de littérature d'enfance et de jeunesse et de science-fiction.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,34 +553,209 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Ma sœur, le fantôme
-Jumelles à nouveau, Ada, 2012 ((en) Twin Again, 1995)
+          <t>Série Ma sœur, le fantôme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jumelles à nouveau, Ada, 2012 ((en) Twin Again, 1995)
 L'Évasion du pays des fantômes, Ada, 2012 ((en) Escape from Ghostland, 1995)
 Problème d'enseignante, Ada, 2012 ((en) Teacher Trouble, 1996)
-Gardienne d'enfants, attention !, Ada, 2013 ((en) Babysitter Beware, 1996)
-Série Régénération
-Régénération, Ada, 2012 ((en) Regeneration, 2000)
+Gardienne d'enfants, attention !, Ada, 2013 ((en) Babysitter Beware, 1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Régénération</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Régénération, Ada, 2012 ((en) Regeneration, 2000)
 La Quête, Ada, 2012 ((en) The Search, 2000)
 La Vérité, Ada, 2012 ((en) The Truth, 2000)
 L'Imposteur, Ada, 2013 ((en) The Imposter, 2000)
-Le Tueur, Ada, 2013 ((en) The Killer, 2001)
-Série Visions
-Ne meurs pas libellule, Ada, 2007 ((en) Don't Die, Dragonfly, 2004)
+Le Tueur, Ada, 2013 ((en) The Killer, 2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Visions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ne meurs pas libellule, Ada, 2007 ((en) Don't Die, Dragonfly, 2004)
 La Dernière Danse, Ada, 2007 ((en) Last Dance, 2005)
 Boule de cristal, Ada, 2008 ((en) Witch Ball, 2006)
 Croiser le fer, Ada, 2008 ((en) Sword Play, 2006)
 La Breloque du destin, Ada, 2008 ((en) Fatal Charm, 2007)
-La Muse de la magicienne, Ada, 2011 ((en) Magician's Muse, 2010)
-Série Rencontres de l'étrange
-Oh non ! OVNI !, Ada, 2008 ((en) Oh No! UFO!, 2004)
+La Muse de la magicienne, Ada, 2011 ((en) Magician's Muse, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Rencontres de l'étrange</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Oh non ! OVNI !, Ada, 2008 ((en) Oh No! UFO!, 2004)
 Lutinerie !, Ada, 2008 ((en) Shamrocked!, 2005)
-La Magie des sirènes, Ada, 2008 ((en) Sea Switch, 2005)
-Série Morte vivante
-La Morte qui marchait, Ada, 2009 ((en) Dead Girl Walking, 2008)
+La Magie des sirènes, Ada, 2008 ((en) Sea Switch, 2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Morte vivante</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Morte qui marchait, Ada, 2009 ((en) Dead Girl Walking, 2008)
 La Morte qui dansait, Ada, 2010 ((en) Dead Girl Dancing, 2009)
-La Morte qui aimait, Ada, 2010 ((en) Dead Girl in Love, 2009)
-Romans indépendants
-Cap sur l'amour, Bayard Jeunesse, 2001 ((en) Dreamboat, 1995)
+La Morte qui aimait, Ada, 2010 ((en) Dead Girl in Love, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linda_Joy_Singleton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cap sur l'amour, Bayard Jeunesse, 2001 ((en) Dreamboat, 1995)
 (en) Love Potion, 2002
 (en) Phantom Boyfriend, 2002
 (en) Double Vision, 2003
